--- a/biology/Médecine/Collier_cervical/Collier_cervical.xlsx
+++ b/biology/Médecine/Collier_cervical/Collier_cervical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le collier cervical, ou minerve, également appelé collet cervical au Québec, est une attelle permettant d'immobiliser les vertèbres cervicales, c'est-à-dire le cou : il restreint les mouvements de la tête par rapport aux épaules. Il est généralement utilisé en cas de chute de hauteur et d'accident de la circulation, ou de trauma crânien et lorsque le choc a pu provoquer une lésion des cervicales.
 Les habitudes de langage veulent que le terme « minerve » soit utilisé pour désigner des contentions du cou posées en milieu médical, tandis que le terme « collier cervical » désigne des dispositifs provisoires utilisés en milieu pré-hospitalier. Il n'existe toutefois aucune définition officielle différenciant ces termes bien que dans les faits, on utilise plus le terme de collier cervical pour le dispositif mettant en repos complet les cervicales donc avec un appui mandibulaire et un appui sternal alors que la minerve (souvent en mousse) ne tracte pas les cervicales mais empêche juste les mouvements cervicaux.
@@ -512,7 +524,9 @@
           <t>Différents modèles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux modèles de colliers cervicaux : les modèles en mousse et les modèles rigides.
 Les modèles en mousse sont constitués d'une bande de mousse dense épaisse recouverte d'un film plastique lavable que l'on enroule autour du cou. Ils présentent deux bosses vers le haut et une bosse vers le bas entre les deux :
@@ -549,7 +563,9 @@
           <t>Mise en place d'un collier cervical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La realisation des gestes du maintien des fonctions vitales reste la priorité absolue : arrêt des hémorragies, libération des voies aériennes et réanimation cardio pulmonaire.
 Son usage chez l'adulte comme chez l'enfant n'est plus systématique.
@@ -608,9 +624,11 @@
           <t>Limites du collier cervical</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le collier cervical, même dans sa version rigide, n'immobilise pas complètement : il permet encore 25 à 30 % des mouvements de flexion et d'extension, ainsi que 50 % des mouvements de flexion latérale[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le collier cervical, même dans sa version rigide, n'immobilise pas complètement : il permet encore 25 à 30 % des mouvements de flexion et d'extension, ainsi que 50 % des mouvements de flexion latérale.
 L'usage répété du collier cervical à visée antalgique, en traitement des torticolis ou douleurs musculaires cervicales par exemple, peut présenter l'inconvénient à terme de réduire la capacité musculaire naturelle de soutien de la tête et de favoriser la fonte musculaire ou l'enraidissement des articulations. La diminution de la capacité musculaire peut entrainer des difficultés à la stature ou à la mobilisation, et augmente potentiellement le risque de suraccident et de syndrome douloureux chronique.
 </t>
         </is>
@@ -640,10 +658,12 @@
           <t>Effets délétères</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les indications de la pose d'un collier cervical ont largement diminuées ces dernières années, à mesure qu'un nombre croissant d'études démontrent que les inconvénients à la pose d'un collier pourraient être supérieurs à ses bénéfices. En effet, sa pose peut entraîner des mobilisations inappropriées de la colonne vertébrale, notamment des vertèbres cervicales[2] ; une augmentation de la pression intracrânienne[3] ; un retardement de l'intubation trachéale[4] (la position idéale pour l'intubation est de s'approcher d'un alignement bouche-pharynx-larynx, ce qui chez un adulte représente une bascule arrière de la tête d'environ 35 ° (angle de Belhouse) ; il est alors fréquent de voir une équipe médicale défaire le collier cervical le temps de l'intubation, puis le remettre) ; des escarres par compression des tissus contre les os du crâne ou les vertèbres cervicales[5] ou des paralysies des nerfs mandibulaires[6].
-A contrario, d'éventuelles études démontrant les effets positifs de la pose d'un collier cervical semblent inexistantes[7], ne permettant pas aujourd'hui d'affirmer formellement que la pose d'un tel matériel permettrait de réduire la mortalité ou les complications neurologiques et fonctionnelles chez les patients traumatisés.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les indications de la pose d'un collier cervical ont largement diminuées ces dernières années, à mesure qu'un nombre croissant d'études démontrent que les inconvénients à la pose d'un collier pourraient être supérieurs à ses bénéfices. En effet, sa pose peut entraîner des mobilisations inappropriées de la colonne vertébrale, notamment des vertèbres cervicales ; une augmentation de la pression intracrânienne ; un retardement de l'intubation trachéale (la position idéale pour l'intubation est de s'approcher d'un alignement bouche-pharynx-larynx, ce qui chez un adulte représente une bascule arrière de la tête d'environ 35 ° (angle de Belhouse) ; il est alors fréquent de voir une équipe médicale défaire le collier cervical le temps de l'intubation, puis le remettre) ; des escarres par compression des tissus contre les os du crâne ou les vertèbres cervicales ou des paralysies des nerfs mandibulaires.
+A contrario, d'éventuelles études démontrant les effets positifs de la pose d'un collier cervical semblent inexistantes, ne permettant pas aujourd'hui d'affirmer formellement que la pose d'un tel matériel permettrait de réduire la mortalité ou les complications neurologiques et fonctionnelles chez les patients traumatisés.
 </t>
         </is>
       </c>
@@ -672,7 +692,9 @@
           <t>Collier cervical improvisé</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En attendant l'arrivée des secours, l'immobilisation d'une personne consciente se fait en maintenant la tête. Cependant, il peut être nécessaire de lâcher la tête, par exemple pour s'occuper d'autres victimes, ou bien si l'on est seul pour aller prévenir les secours. Sans retarder les actions de secours mentionnées on peut mettre des objets (par exemple des vêtements) autour de la tête de la victime ; ces objets constituent un repère pour la victime, à qui l'on va dire de ne pas bouger la tête.
 On peut aussi avoir recours à un collier cervical improvisé. La solution la plus simple consiste à prendre un journal plié et à l'enrouler autour du cou de la victime. On ajustera la largeur du pliage afin que le journal s'appuie sur les épaules et sous les oreilles ; le journal peut être maintenu en place par un lien (par exemple une cravate) ou du ruban adhésif, mais ne doit pas gêner la respiration.
